--- a/Technology/Software/Topicus.xlsx
+++ b/Technology/Software/Topicus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41D3777-890F-BF4D-B85C-9712EBC22B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBD0583-0EF2-6645-8D6C-21AEEC9D17A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1755,7 +1755,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1894,32 +1894,32 @@
     <v>Powered by Refinitiv</v>
     <v>110</v>
     <v>66.17</v>
-    <v>1.04</v>
-    <v>1.1165000000000001E-2</v>
+    <v>-1.78</v>
+    <v>-1.8651999999999998E-2</v>
     <v>CAD</v>
     <v>Topicus.com Inc. is a Canada-based provider of vertical market software and vertical market platforms to clients in a select group of public and private sector markets. The Company is engaged principally in the development, installation and customization of software and the provision of related professional services and support for customers across approximately 20 diverse markets primarily in Europe. Its three companies, namely Total Specific Solutions (TSS) Public, TSS Blue and Topicus are engaged in acquiring, developing and managing businesses. Topicus is a provider of consumer centric platforms and common workspaces in the realms of finance, education, healthcare and social services by connecting organizations, professionals and end users. Its TSS software solutions offers its customers financial security, strategic guidance, and share their best practices so that they can be leaders in their respective domains.</v>
     <v>TSX Venture Exchange</v>
     <v>XTSX</v>
     <v>XTSX</v>
     <v>#1200 - 20 Adelaide Street, East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>95.02</v>
+    <v>95.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.875</v>
+    <v>45259.875</v>
     <v>0</v>
-    <v>91.51</v>
-    <v>7641884000</v>
+    <v>92.52</v>
+    <v>7817494000</v>
     <v>Topicus.com Inc.</v>
     <v>Topicus.com Inc.</v>
-    <v>93.2</v>
-    <v>84.68</v>
-    <v>93.15</v>
-    <v>94.19</v>
+    <v>95.43</v>
+    <v>84.19</v>
+    <v>95.43</v>
+    <v>93.65</v>
     <v>81889760</v>
     <v>TOI</v>
     <v>Topicus.com Inc. (XTSX:TOI)</v>
-    <v>35062</v>
-    <v>15540</v>
+    <v>51906</v>
+    <v>34150</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -1939,18 +1939,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
     <v>0.71930000000000005</v>
-    <v>2.9999999999999997E-4</v>
-    <v>4.1430000000000004E-4</v>
+    <v>5.9999999999999995E-4</v>
+    <v>8.1539999999999998E-4</v>
     <v>USD</v>
     <v>CAD</v>
-    <v>0.72509999999999997</v>
+    <v>0.73699999999999999</v>
     <v>Currency Pair</v>
-    <v>45240.301412037035</v>
-    <v>0.72389999999999999</v>
+    <v>45260.302881944444</v>
+    <v>0.73560000000000003</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.72409999999999997</v>
-    <v>0.72419999999999995</v>
-    <v>0.72450000000000003</v>
+    <v>0.7359</v>
+    <v>0.73580000000000001</v>
+    <v>0.73640000000000005</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -1971,18 +1971,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.3898999999999999</v>
     <v>1.3089999999999999</v>
-    <v>-8.0000000000000004E-4</v>
-    <v>-5.7950000000000005E-4</v>
+    <v>-1.1000000000000001E-3</v>
+    <v>-8.0949999999999989E-4</v>
     <v>CAD</v>
     <v>USD</v>
-    <v>1.3814</v>
+    <v>1.3593999999999999</v>
     <v>Currency Pair</v>
-    <v>45240.301412037035</v>
-    <v>1.3792</v>
+    <v>45260.302881944444</v>
+    <v>1.3568</v>
     <v>US Dollar/Canadian Dollar FX Spot Rate</v>
-    <v>1.381</v>
-    <v>1.3806</v>
-    <v>1.3797999999999999</v>
+    <v>1.3584000000000001</v>
+    <v>1.3589</v>
+    <v>1.3577999999999999</v>
     <v>USDCAD</v>
     <v>USD/CAD</v>
   </rv>
@@ -8928,8 +8928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77FA922-7D8A-1E44-A64C-6D78EAB20CB1}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8980,7 +8980,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>5534252392.7999992</v>
+        <v>5752112085.1999998</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>245</v>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>4126676511.6439924</v>
+        <v>4152720040.7829471</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -9058,14 +9058,14 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>3633565594.3394957</v>
+        <v>3656374341.1388364</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.1165000000000001E-2</v>
+        <v>-1.8651999999999998E-2</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -9108,14 +9108,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>3468864910.3394957</v>
+        <v>3491673657.1388364</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>94.19</v>
+        <v>93.65</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>243</v>
@@ -9133,7 +9133,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>5.0341791831357039</v>
+        <v>5.1498642951251643</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>212</v>
@@ -9161,14 +9161,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.335425534424216E-2</v>
+        <v>9.4013585598215779E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="61">
         <f>(I5/G4)*K9</f>
-        <v>58.466547926143626</v>
+        <v>57.925973473164383</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>244</v>
@@ -9186,14 +9186,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>60.649873015873005</v>
+        <v>62.04360317460317</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>217</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>4.2921352901980722E-2</v>
+        <v>4.1957179628151937E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>218</v>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="K7" s="108">
         <f>K6/K5-1</f>
-        <v>-0.37927011438429103</v>
+        <v>-0.38146317700838894</v>
       </c>
       <c r="L7" s="62" t="s">
         <v>221</v>
@@ -9248,7 +9248,7 @@
       <c r="J8" s="72"/>
       <c r="K8" s="109" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>0.72419999999999995</v>
+        <v>0.73580000000000001</v>
       </c>
       <c r="L8" s="110" t="e" vm="2">
         <v>#VALUE!</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="K9" s="109" cm="1">
         <f t="array" ref="K9">_FV(L9,"Previous close",TRUE)</f>
-        <v>1.3806</v>
+        <v>1.3589</v>
       </c>
       <c r="L9" s="110" t="e" vm="3">
         <v>#VALUE!</v>
@@ -9329,23 +9329,23 @@
       </c>
       <c r="F10" s="81">
         <f>K8*1518000000</f>
-        <v>1099335600</v>
+        <v>1116944400</v>
       </c>
       <c r="G10" s="81">
         <f>K8*1632000000</f>
-        <v>1181894400</v>
+        <v>1200825600</v>
       </c>
       <c r="H10" s="81">
         <f>K8*1690000000</f>
-        <v>1223898000</v>
+        <v>1243502000</v>
       </c>
       <c r="I10" s="81">
         <f>K8*1723000000</f>
-        <v>1247796600</v>
+        <v>1267783400</v>
       </c>
       <c r="J10" s="82">
         <f>K8*1758000000</f>
-        <v>1273143600</v>
+        <v>1293536400</v>
       </c>
       <c r="K10" s="83" t="s">
         <v>225</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="F11" s="86">
         <f t="shared" si="0"/>
-        <v>0.12369007207271943</v>
+        <v>0.14168897408327386</v>
       </c>
       <c r="G11" s="85">
         <f t="shared" si="0"/>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="K11" s="87">
         <f>SUM(F11:J11)/5</f>
-        <v>5.4833627211139602E-2</v>
+        <v>5.8433407613250485E-2</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="72"/>
@@ -9428,23 +9428,23 @@
       </c>
       <c r="F12" s="89">
         <f>K8*126000000</f>
-        <v>91249200</v>
+        <v>92710800</v>
       </c>
       <c r="G12" s="81">
         <f>K8*144000000</f>
-        <v>104284800</v>
+        <v>105955200</v>
       </c>
       <c r="H12" s="81">
         <f>K8*149000000</f>
-        <v>107905800</v>
+        <v>109634200</v>
       </c>
       <c r="I12" s="81">
         <f>K8*152000000</f>
-        <v>110078400</v>
+        <v>111841600</v>
       </c>
       <c r="J12" s="82">
         <f>K8*155000000</f>
-        <v>112251000</v>
+        <v>114049000</v>
       </c>
       <c r="K12" s="90" t="s">
         <v>228</v>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="F13" s="86">
         <f t="shared" si="1"/>
-        <v>0.61539428128061857</v>
+        <v>0.64126914135084112</v>
       </c>
       <c r="G13" s="85">
         <f t="shared" si="1"/>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="O14" s="88">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.3360000000000003E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -9577,23 +9577,23 @@
       </c>
       <c r="F15" s="89">
         <f>K8*328000000</f>
-        <v>237537600</v>
+        <v>241342400</v>
       </c>
       <c r="G15" s="81">
         <f>K8*350000000</f>
-        <v>253469999.99999997</v>
+        <v>257530000</v>
       </c>
       <c r="H15" s="81">
         <f>K8*360000000</f>
-        <v>260711999.99999997</v>
+        <v>264888000</v>
       </c>
       <c r="I15" s="81">
         <f>K8*370000000</f>
-        <v>267953999.99999997</v>
+        <v>272246000</v>
       </c>
       <c r="J15" s="82">
         <f>K8*380000000</f>
-        <v>275196000</v>
+        <v>279604000</v>
       </c>
       <c r="K15" s="90" t="s">
         <v>233</v>
@@ -9626,11 +9626,11 @@
       </c>
       <c r="F16" s="86">
         <f t="shared" si="3"/>
-        <v>7.8852766516148476E-2</v>
+        <v>9.6133479152971768E-2</v>
       </c>
       <c r="G16" s="85">
         <f t="shared" si="3"/>
-        <v>6.7073170731707155E-2</v>
+        <v>6.7073170731707377E-2</v>
       </c>
       <c r="H16" s="85">
         <f t="shared" si="3"/>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="J16" s="87">
         <f t="shared" si="3"/>
-        <v>2.7027027027027195E-2</v>
+        <v>2.7027027027026973E-2</v>
       </c>
       <c r="K16" s="87">
         <f>AVERAGE(G16:J16)</f>
@@ -9688,11 +9688,11 @@
       </c>
       <c r="H17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21301775147928992</v>
+        <v>0.21301775147928995</v>
       </c>
       <c r="I17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21474172954149737</v>
+        <v>0.21474172954149739</v>
       </c>
       <c r="J17" s="94">
         <f t="shared" si="4"/>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
+        <v>9.7411200000000003E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>5534252392.7999992</v>
+        <v>5752112085.1999998</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>5886950982.7999992</v>
+        <v>6104810675.1999998</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>5.9911929117549174E-2</v>
+        <v>5.7773878464862503E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.94008807088245083</v>
+        <v>0.94222612153513752</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -9902,7 +9902,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.335425534424216E-2</v>
+        <v>9.4013585598215779E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Topicus.xlsx
+++ b/Technology/Software/Topicus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBD0583-0EF2-6645-8D6C-21AEEC9D17A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283411E-D1EA-424F-AA49-7B02F122EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1738,6 +1738,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1755,7 +1756,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1767,6 +1768,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1894,32 +1896,32 @@
     <v>Powered by Refinitiv</v>
     <v>110</v>
     <v>66.17</v>
-    <v>-1.78</v>
-    <v>-1.8651999999999998E-2</v>
+    <v>1.84</v>
+    <v>2.0139999999999998E-2</v>
     <v>CAD</v>
     <v>Topicus.com Inc. is a Canada-based provider of vertical market software and vertical market platforms to clients in a select group of public and private sector markets. The Company is engaged principally in the development, installation and customization of software and the provision of related professional services and support for customers across approximately 20 diverse markets primarily in Europe. Its three companies, namely Total Specific Solutions (TSS) Public, TSS Blue and Topicus are engaged in acquiring, developing and managing businesses. Topicus is a provider of consumer centric platforms and common workspaces in the realms of finance, education, healthcare and social services by connecting organizations, professionals and end users. Its TSS software solutions offers its customers financial security, strategic guidance, and share their best practices so that they can be leaders in their respective domains.</v>
     <v>TSX Venture Exchange</v>
     <v>XTSX</v>
     <v>XTSX</v>
     <v>#1200 - 20 Adelaide Street, East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>95.5</v>
+    <v>95.06</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45259.875</v>
+    <v>45261.875</v>
     <v>0</v>
-    <v>92.52</v>
-    <v>7817494000</v>
+    <v>90.614999999999995</v>
+    <v>7466584000</v>
     <v>Topicus.com Inc.</v>
     <v>Topicus.com Inc.</v>
-    <v>95.43</v>
-    <v>84.19</v>
-    <v>95.43</v>
-    <v>93.65</v>
+    <v>91.99</v>
+    <v>82.13</v>
+    <v>91.36</v>
+    <v>93.2</v>
     <v>81889760</v>
     <v>TOI</v>
     <v>Topicus.com Inc. (XTSX:TOI)</v>
-    <v>51906</v>
-    <v>34150</v>
+    <v>41696</v>
+    <v>35360</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -1939,18 +1941,15 @@
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
     <v>0.71930000000000005</v>
-    <v>5.9999999999999995E-4</v>
-    <v>8.1539999999999998E-4</v>
+    <v>3.3E-3</v>
+    <v>4.4749999999999998E-3</v>
     <v>USD</v>
     <v>CAD</v>
-    <v>0.73699999999999999</v>
     <v>Currency Pair</v>
-    <v>45260.302881944444</v>
-    <v>0.73560000000000003</v>
+    <v>45261.916666666664</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.7359</v>
-    <v>0.73580000000000001</v>
-    <v>0.73640000000000005</v>
+    <v>0.73740000000000006</v>
+    <v>0.74070000000000003</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -1971,18 +1970,15 @@
     <v>Powered by Refinitiv</v>
     <v>1.3898999999999999</v>
     <v>1.3089999999999999</v>
-    <v>-1.1000000000000001E-3</v>
-    <v>-8.0949999999999989E-4</v>
+    <v>-6.4999999999999997E-3</v>
+    <v>-4.7930000000000004E-3</v>
     <v>CAD</v>
     <v>USD</v>
-    <v>1.3593999999999999</v>
     <v>Currency Pair</v>
-    <v>45260.302881944444</v>
-    <v>1.3568</v>
+    <v>45261.916666666664</v>
     <v>US Dollar/Canadian Dollar FX Spot Rate</v>
-    <v>1.3584000000000001</v>
-    <v>1.3589</v>
-    <v>1.3577999999999999</v>
+    <v>1.3562000000000001</v>
+    <v>1.3496999999999999</v>
     <v>USDCAD</v>
     <v>USD/CAD</v>
   </rv>
@@ -2061,12 +2057,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2120,7 +2113,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2138,9 +2131,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2202,10 +2192,7 @@
       <v>1</v>
     </spb>
     <spb s="7">
-      <v>10</v>
-      <v>10</v>
       <v>3</v>
-      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -2219,10 +2206,7 @@
       <v>GMT</v>
     </spb>
     <spb s="7">
-      <v>1</v>
-      <v>1</v>
       <v>3</v>
-      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -2289,10 +2273,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -8929,7 +8910,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8980,7 +8961,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>5752112085.1999998</v>
+        <v>5505859041.6000004</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>245</v>
@@ -9008,7 +8989,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>4152720040.7829471</v>
+        <v>4158208862.9049606</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -9058,14 +9039,14 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>3656374341.1388364</v>
+        <v>3661196175.4344521</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.8651999999999998E-2</v>
+        <v>2.0139999999999998E-2</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -9108,14 +9089,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>3491673657.1388364</v>
+        <v>3496495491.4344521</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>93.65</v>
+        <v>93.2</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>243</v>
@@ -9133,14 +9114,14 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>5.1498642951251643</v>
+        <v>4.9186982872200264</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="49">
         <f>F17</f>
-        <v>0.21607378129117261</v>
+        <v>0.21607378129117263</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>191</v>
@@ -9161,14 +9142,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.4013585598215779E-2</v>
+        <v>9.4072360112124706E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="61">
         <f>(I5/G4)*K9</f>
-        <v>57.925973473164383</v>
+        <v>57.890714348977369</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>244</v>
@@ -9186,14 +9167,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>62.04360317460317</v>
+        <v>59.258603174603181</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>217</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>4.1957179628151937E-2</v>
+        <v>4.3929057785996921E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>218</v>
@@ -9220,7 +9201,7 @@
       </c>
       <c r="K7" s="108">
         <f>K6/K5-1</f>
-        <v>-0.38146317700838894</v>
+        <v>-0.3788549962556077</v>
       </c>
       <c r="L7" s="62" t="s">
         <v>221</v>
@@ -9248,7 +9229,7 @@
       <c r="J8" s="72"/>
       <c r="K8" s="109" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>0.73580000000000001</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="L8" s="110" t="e" vm="2">
         <v>#VALUE!</v>
@@ -9296,7 +9277,7 @@
       </c>
       <c r="K9" s="109" cm="1">
         <f t="array" ref="K9">_FV(L9,"Previous close",TRUE)</f>
-        <v>1.3589</v>
+        <v>1.3562000000000001</v>
       </c>
       <c r="L9" s="110" t="e" vm="3">
         <v>#VALUE!</v>
@@ -9329,23 +9310,23 @@
       </c>
       <c r="F10" s="81">
         <f>K8*1518000000</f>
-        <v>1116944400</v>
+        <v>1119373200</v>
       </c>
       <c r="G10" s="81">
         <f>K8*1632000000</f>
-        <v>1200825600</v>
+        <v>1203436800</v>
       </c>
       <c r="H10" s="81">
         <f>K8*1690000000</f>
-        <v>1243502000</v>
+        <v>1246206000</v>
       </c>
       <c r="I10" s="81">
         <f>K8*1723000000</f>
-        <v>1267783400</v>
+        <v>1270540200</v>
       </c>
       <c r="J10" s="82">
         <f>K8*1758000000</f>
-        <v>1293536400</v>
+        <v>1296349200</v>
       </c>
       <c r="K10" s="83" t="s">
         <v>225</v>
@@ -9377,7 +9358,7 @@
       </c>
       <c r="F11" s="86">
         <f t="shared" si="0"/>
-        <v>0.14168897408327386</v>
+        <v>0.14417158125714336</v>
       </c>
       <c r="G11" s="85">
         <f t="shared" si="0"/>
@@ -9397,7 +9378,7 @@
       </c>
       <c r="K11" s="87">
         <f>SUM(F11:J11)/5</f>
-        <v>5.8433407613250485E-2</v>
+        <v>5.8929929048024389E-2</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="72"/>
@@ -9428,23 +9409,23 @@
       </c>
       <c r="F12" s="89">
         <f>K8*126000000</f>
-        <v>92710800</v>
+        <v>92912400</v>
       </c>
       <c r="G12" s="81">
         <f>K8*144000000</f>
-        <v>105955200</v>
+        <v>106185600.00000001</v>
       </c>
       <c r="H12" s="81">
         <f>K8*149000000</f>
-        <v>109634200</v>
+        <v>109872600.00000001</v>
       </c>
       <c r="I12" s="81">
         <f>K8*152000000</f>
-        <v>111841600</v>
+        <v>112084800.00000001</v>
       </c>
       <c r="J12" s="82">
         <f>K8*155000000</f>
-        <v>114049000</v>
+        <v>114297000.00000001</v>
       </c>
       <c r="K12" s="90" t="s">
         <v>228</v>
@@ -9477,11 +9458,11 @@
       </c>
       <c r="F13" s="86">
         <f t="shared" si="1"/>
-        <v>0.64126914135084112</v>
+        <v>0.64483808756742356</v>
       </c>
       <c r="G13" s="85">
         <f t="shared" si="1"/>
-        <v>0.14285714285714279</v>
+        <v>0.14285714285714302</v>
       </c>
       <c r="H13" s="85">
         <f t="shared" si="1"/>
@@ -9497,7 +9478,7 @@
       </c>
       <c r="K13" s="87">
         <f>AVERAGE(G13:J13)</f>
-        <v>5.4362608843136928E-2</v>
+        <v>5.4362608843136984E-2</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
@@ -9537,15 +9518,15 @@
       </c>
       <c r="H14" s="92">
         <f t="shared" si="2"/>
-        <v>8.8165680473372782E-2</v>
+        <v>8.8165680473372796E-2</v>
       </c>
       <c r="I14" s="92">
         <f t="shared" si="2"/>
-        <v>8.821822402785838E-2</v>
+        <v>8.8218224027858394E-2</v>
       </c>
       <c r="J14" s="94">
         <f t="shared" si="2"/>
-        <v>8.8168373151308307E-2</v>
+        <v>8.8168373151308321E-2</v>
       </c>
       <c r="K14" s="94"/>
       <c r="L14" s="72"/>
@@ -9555,7 +9536,7 @@
       </c>
       <c r="O14" s="88">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -9577,23 +9558,23 @@
       </c>
       <c r="F15" s="89">
         <f>K8*328000000</f>
-        <v>241342400</v>
+        <v>241867200.00000003</v>
       </c>
       <c r="G15" s="81">
         <f>K8*350000000</f>
-        <v>257530000</v>
+        <v>258090000.00000003</v>
       </c>
       <c r="H15" s="81">
         <f>K8*360000000</f>
-        <v>264888000</v>
+        <v>265464000.00000003</v>
       </c>
       <c r="I15" s="81">
         <f>K8*370000000</f>
-        <v>272246000</v>
+        <v>272838000</v>
       </c>
       <c r="J15" s="82">
         <f>K8*380000000</f>
-        <v>279604000</v>
+        <v>280212000</v>
       </c>
       <c r="K15" s="90" t="s">
         <v>233</v>
@@ -9626,7 +9607,7 @@
       </c>
       <c r="F16" s="86">
         <f t="shared" si="3"/>
-        <v>9.6133479152971768E-2</v>
+        <v>9.851702572356813E-2</v>
       </c>
       <c r="G16" s="85">
         <f t="shared" si="3"/>
@@ -9680,15 +9661,15 @@
       </c>
       <c r="F17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21607378129117261</v>
+        <v>0.21607378129117263</v>
       </c>
       <c r="G17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21446078431372548</v>
+        <v>0.21446078431372551</v>
       </c>
       <c r="H17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21301775147928995</v>
+        <v>0.21301775147928997</v>
       </c>
       <c r="I17" s="92">
         <f t="shared" si="4"/>
@@ -9706,7 +9687,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -9785,7 +9766,7 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>5752112085.1999998</v>
+        <v>5505859041.6000004</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -9813,7 +9794,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>6104810675.1999998</v>
+        <v>5858557631.6000004</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -9839,7 +9820,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>5.7773878464862503E-2</v>
+        <v>6.020229076481344E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -9862,7 +9843,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.94222612153513752</v>
+        <v>0.93979770923518657</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -9902,7 +9883,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4013585598215779E-2</v>
+        <v>9.4072360112124706E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Topicus.xlsx
+++ b/Technology/Software/Topicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283411E-D1EA-424F-AA49-7B02F122EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A0DAB-2291-B54E-8FC0-C65884655701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1737,6 +1737,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1756,7 +1758,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1769,6 +1771,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1896,32 +1900,32 @@
     <v>Powered by Refinitiv</v>
     <v>110</v>
     <v>66.17</v>
-    <v>1.84</v>
-    <v>2.0139999999999998E-2</v>
+    <v>-1.0900000000000001</v>
+    <v>-1.1682999999999999E-2</v>
     <v>CAD</v>
     <v>Topicus.com Inc. is a Canada-based provider of vertical market software and vertical market platforms to clients in a select group of public and private sector markets. The Company is engaged principally in the development, installation and customization of software and the provision of related professional services and support for customers across approximately 20 diverse markets primarily in Europe. Its three companies, namely Total Specific Solutions (TSS) Public, TSS Blue and Topicus are engaged in acquiring, developing and managing businesses. Topicus is a provider of consumer centric platforms and common workspaces in the realms of finance, education, healthcare and social services by connecting organizations, professionals and end users. Its TSS software solutions offers its customers financial security, strategic guidance, and share their best practices so that they can be leaders in their respective domains.</v>
     <v>TSX Venture Exchange</v>
     <v>XTSX</v>
     <v>XTSX</v>
     <v>#1200 - 20 Adelaide Street, East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>95.06</v>
+    <v>94.44</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.875</v>
+    <v>45268.874849537038</v>
     <v>0</v>
-    <v>90.614999999999995</v>
-    <v>7466584000</v>
+    <v>92.21</v>
+    <v>7642001000</v>
     <v>Topicus.com Inc.</v>
     <v>Topicus.com Inc.</v>
-    <v>91.99</v>
-    <v>82.13</v>
-    <v>91.36</v>
-    <v>93.2</v>
+    <v>94.44</v>
+    <v>83.88</v>
+    <v>93.3</v>
+    <v>92.21</v>
     <v>81889760</v>
     <v>TOI</v>
     <v>Topicus.com Inc. (XTSX:TOI)</v>
-    <v>41696</v>
-    <v>35360</v>
+    <v>15770</v>
+    <v>40190</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -1941,15 +1945,15 @@
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
     <v>0.71930000000000005</v>
-    <v>3.3E-3</v>
-    <v>4.4749999999999998E-3</v>
+    <v>5.0000000000000001E-4</v>
+    <v>6.8000000000000005E-4</v>
     <v>USD</v>
     <v>CAD</v>
     <v>Currency Pair</v>
-    <v>45261.916666666664</v>
+    <v>45268.916666666664</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.73740000000000006</v>
-    <v>0.74070000000000003</v>
+    <v>0.73529999999999995</v>
+    <v>0.73580000000000001</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -1970,15 +1974,15 @@
     <v>Powered by Refinitiv</v>
     <v>1.3898999999999999</v>
     <v>1.3089999999999999</v>
-    <v>-6.4999999999999997E-3</v>
-    <v>-4.7930000000000004E-3</v>
+    <v>-6.9999999999999999E-4</v>
+    <v>-5.1489999999999999E-4</v>
     <v>CAD</v>
     <v>USD</v>
     <v>Currency Pair</v>
-    <v>45261.916666666664</v>
+    <v>45268.916666666664</v>
     <v>US Dollar/Canadian Dollar FX Spot Rate</v>
-    <v>1.3562000000000001</v>
-    <v>1.3496999999999999</v>
+    <v>1.3593999999999999</v>
+    <v>1.3587</v>
     <v>USDCAD</v>
     <v>USD/CAD</v>
   </rv>
@@ -8910,7 +8914,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8961,7 +8965,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>5505859041.6000004</v>
+        <v>5619163335.2999992</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>245</v>
@@ -8989,7 +8993,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>4158208862.9049606</v>
+        <v>4114605499.8562994</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -9039,14 +9043,14 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>3661196175.4344521</v>
+        <v>3622706337.0288196</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.0139999999999998E-2</v>
+        <v>-1.1682999999999999E-2</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -9089,14 +9093,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>3496495491.4344521</v>
+        <v>3458005653.0288196</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>93.2</v>
+        <v>92.21</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>243</v>
@@ -9114,14 +9118,14 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>4.9186982872200264</v>
+        <v>5.0342562582345183</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="49">
         <f>F17</f>
-        <v>0.21607378129117263</v>
+        <v>0.21607378129117258</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>191</v>
@@ -9142,14 +9146,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.4072360112124706E-2</v>
+        <v>9.4605542988265179E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="61">
         <f>(I5/G4)*K9</f>
-        <v>57.890714348977369</v>
+        <v>57.388537930331886</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>244</v>
@@ -9167,14 +9171,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>59.258603174603181</v>
+        <v>60.650801587301579</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>217</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>4.3929057785996921E-2</v>
+        <v>4.2920695770649601E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>218</v>
@@ -9201,7 +9205,7 @@
       </c>
       <c r="K7" s="108">
         <f>K6/K5-1</f>
-        <v>-0.3788549962556077</v>
+        <v>-0.37763216646424591</v>
       </c>
       <c r="L7" s="62" t="s">
         <v>221</v>
@@ -9229,7 +9233,7 @@
       <c r="J8" s="72"/>
       <c r="K8" s="109" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>0.73740000000000006</v>
+        <v>0.73529999999999995</v>
       </c>
       <c r="L8" s="110" t="e" vm="2">
         <v>#VALUE!</v>
@@ -9277,7 +9281,7 @@
       </c>
       <c r="K9" s="109" cm="1">
         <f t="array" ref="K9">_FV(L9,"Previous close",TRUE)</f>
-        <v>1.3562000000000001</v>
+        <v>1.3593999999999999</v>
       </c>
       <c r="L9" s="110" t="e" vm="3">
         <v>#VALUE!</v>
@@ -9310,23 +9314,23 @@
       </c>
       <c r="F10" s="81">
         <f>K8*1518000000</f>
-        <v>1119373200</v>
+        <v>1116185400</v>
       </c>
       <c r="G10" s="81">
         <f>K8*1632000000</f>
-        <v>1203436800</v>
+        <v>1200009600</v>
       </c>
       <c r="H10" s="81">
         <f>K8*1690000000</f>
-        <v>1246206000</v>
+        <v>1242657000</v>
       </c>
       <c r="I10" s="81">
         <f>K8*1723000000</f>
-        <v>1270540200</v>
+        <v>1266921900</v>
       </c>
       <c r="J10" s="82">
         <f>K8*1758000000</f>
-        <v>1296349200</v>
+        <v>1292657400</v>
       </c>
       <c r="K10" s="83" t="s">
         <v>225</v>
@@ -9358,7 +9362,7 @@
       </c>
       <c r="F11" s="86">
         <f t="shared" si="0"/>
-        <v>0.14417158125714336</v>
+        <v>0.14091315934143944</v>
       </c>
       <c r="G11" s="85">
         <f t="shared" si="0"/>
@@ -9378,7 +9382,7 @@
       </c>
       <c r="K11" s="87">
         <f>SUM(F11:J11)/5</f>
-        <v>5.8929929048024389E-2</v>
+        <v>5.8278244664883606E-2</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="72"/>
@@ -9409,23 +9413,23 @@
       </c>
       <c r="F12" s="89">
         <f>K8*126000000</f>
-        <v>92912400</v>
+        <v>92647800</v>
       </c>
       <c r="G12" s="81">
         <f>K8*144000000</f>
-        <v>106185600.00000001</v>
+        <v>105883200</v>
       </c>
       <c r="H12" s="81">
         <f>K8*149000000</f>
-        <v>109872600.00000001</v>
+        <v>109559700</v>
       </c>
       <c r="I12" s="81">
         <f>K8*152000000</f>
-        <v>112084800.00000001</v>
+        <v>111765600</v>
       </c>
       <c r="J12" s="82">
         <f>K8*155000000</f>
-        <v>114297000.00000001</v>
+        <v>113971500</v>
       </c>
       <c r="K12" s="90" t="s">
         <v>228</v>
@@ -9458,11 +9462,11 @@
       </c>
       <c r="F13" s="86">
         <f t="shared" si="1"/>
-        <v>0.64483808756742356</v>
+        <v>0.64015384565815925</v>
       </c>
       <c r="G13" s="85">
         <f t="shared" si="1"/>
-        <v>0.14285714285714302</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="H13" s="85">
         <f t="shared" si="1"/>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K13" s="87">
         <f>AVERAGE(G13:J13)</f>
-        <v>5.4362608843136984E-2</v>
+        <v>5.4362608843136928E-2</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
@@ -9518,15 +9522,15 @@
       </c>
       <c r="H14" s="92">
         <f t="shared" si="2"/>
-        <v>8.8165680473372796E-2</v>
+        <v>8.8165680473372782E-2</v>
       </c>
       <c r="I14" s="92">
         <f t="shared" si="2"/>
-        <v>8.8218224027858394E-2</v>
+        <v>8.821822402785838E-2</v>
       </c>
       <c r="J14" s="94">
         <f t="shared" si="2"/>
-        <v>8.8168373151308321E-2</v>
+        <v>8.8168373151308307E-2</v>
       </c>
       <c r="K14" s="94"/>
       <c r="L14" s="72"/>
@@ -9536,7 +9540,7 @@
       </c>
       <c r="O14" s="88">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -9558,23 +9562,23 @@
       </c>
       <c r="F15" s="89">
         <f>K8*328000000</f>
-        <v>241867200.00000003</v>
+        <v>241178399.99999997</v>
       </c>
       <c r="G15" s="81">
         <f>K8*350000000</f>
-        <v>258090000.00000003</v>
+        <v>257354999.99999997</v>
       </c>
       <c r="H15" s="81">
         <f>K8*360000000</f>
-        <v>265464000.00000003</v>
+        <v>264707999.99999997</v>
       </c>
       <c r="I15" s="81">
         <f>K8*370000000</f>
-        <v>272838000</v>
+        <v>272061000</v>
       </c>
       <c r="J15" s="82">
         <f>K8*380000000</f>
-        <v>280212000</v>
+        <v>279414000</v>
       </c>
       <c r="K15" s="90" t="s">
         <v>233</v>
@@ -9607,7 +9611,7 @@
       </c>
       <c r="F16" s="86">
         <f t="shared" si="3"/>
-        <v>9.851702572356813E-2</v>
+        <v>9.5388620849660155E-2</v>
       </c>
       <c r="G16" s="85">
         <f t="shared" si="3"/>
@@ -9619,7 +9623,7 @@
       </c>
       <c r="I16" s="85">
         <f t="shared" si="3"/>
-        <v>2.7777777777777679E-2</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="J16" s="87">
         <f t="shared" si="3"/>
@@ -9627,7 +9631,7 @@
       </c>
       <c r="K16" s="87">
         <f>AVERAGE(G16:J16)</f>
-        <v>3.7612351026985125E-2</v>
+        <v>3.761235102698518E-2</v>
       </c>
       <c r="L16" s="72"/>
       <c r="M16" s="72"/>
@@ -9661,15 +9665,15 @@
       </c>
       <c r="F17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21607378129117263</v>
+        <v>0.21607378129117258</v>
       </c>
       <c r="G17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21446078431372551</v>
+        <v>0.21446078431372548</v>
       </c>
       <c r="H17" s="92">
         <f t="shared" si="4"/>
-        <v>0.21301775147928997</v>
+        <v>0.21301775147928992</v>
       </c>
       <c r="I17" s="92">
         <f t="shared" si="4"/>
@@ -9687,7 +9691,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -9766,7 +9770,7 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>5505859041.6000004</v>
+        <v>5619163335.2999992</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -9794,7 +9798,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>5858557631.6000004</v>
+        <v>5971861925.2999992</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -9820,7 +9824,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>6.020229076481344E-2</v>
+        <v>5.9060071115472422E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -9843,7 +9847,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.93979770923518657</v>
+        <v>0.9409399288845276</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -9883,7 +9887,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4072360112124706E-2</v>
+        <v>9.4605542988265179E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="46"/>
